--- a/inst/extdata/c3_aci_1.xlsx
+++ b/inst/extdata/c3_aci_1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eloch\Box Sync\Field Season 2021\2021-08-04 A-Ci curves\randomized\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eloch\Documents\GitHub\licor-processing-and-analysis\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1129,9 +1129,6 @@
     <t>1/2</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>20210805 12:18:13</t>
   </si>
   <si>
@@ -1859,6 +1856,9 @@
   </si>
   <si>
     <t>14:11:10</t>
+  </si>
+  <si>
+    <t>5a</t>
   </si>
 </sst>
 </file>
@@ -2202,8 +2202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:IE64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BR5" workbookViewId="0">
-      <selection activeCell="BY17" sqref="BY17"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4457,19 +4457,19 @@
         <v>9135.4000000953693</v>
       </c>
       <c r="D17" t="s">
+        <v>369</v>
+      </c>
+      <c r="E17" t="s">
         <v>370</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
         <v>371</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17" t="s">
-        <v>372</v>
-      </c>
       <c r="H17" t="s">
-        <v>369</v>
+        <v>612</v>
       </c>
       <c r="I17" t="s">
         <v>361</v>
@@ -4607,7 +4607,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS17" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AT17">
         <v>10307.200000000001</v>
@@ -4650,7 +4650,7 @@
         <v>259.42317317043108</v>
       </c>
       <c r="BE17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="BF17">
         <v>619.26</v>
@@ -4872,7 +4872,7 @@
         <v>1628183855.5</v>
       </c>
       <c r="DW17" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="DX17">
         <v>1628183850</v>
@@ -5222,19 +5222,19 @@
         <v>9237.4000000953693</v>
       </c>
       <c r="D18" t="s">
+        <v>375</v>
+      </c>
+      <c r="E18" t="s">
         <v>376</v>
       </c>
-      <c r="E18" t="s">
-        <v>377</v>
-      </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H18" t="s">
-        <v>369</v>
+        <v>612</v>
       </c>
       <c r="I18" t="s">
         <v>361</v>
@@ -5372,7 +5372,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS18" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AT18">
         <v>10306.700000000001</v>
@@ -5415,7 +5415,7 @@
         <v>254.69500971699549</v>
       </c>
       <c r="BE18" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="BF18">
         <v>608.19000000000005</v>
@@ -5637,7 +5637,7 @@
         <v>1628183954.5</v>
       </c>
       <c r="DW18" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="DX18">
         <v>1628183946.5</v>
@@ -5987,19 +5987,19 @@
         <v>9349.4000000953693</v>
       </c>
       <c r="D19" t="s">
+        <v>380</v>
+      </c>
+      <c r="E19" t="s">
         <v>381</v>
       </c>
-      <c r="E19" t="s">
-        <v>382</v>
-      </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H19" t="s">
-        <v>369</v>
+        <v>612</v>
       </c>
       <c r="I19" t="s">
         <v>361</v>
@@ -6137,7 +6137,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS19" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AT19">
         <v>10305.799999999999</v>
@@ -6180,7 +6180,7 @@
         <v>249.45064803442136</v>
       </c>
       <c r="BE19" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="BF19">
         <v>606.97</v>
@@ -6402,7 +6402,7 @@
         <v>1628184068.5</v>
       </c>
       <c r="DW19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="DX19">
         <v>1628184051</v>
@@ -6752,19 +6752,19 @@
         <v>9460.9000000953693</v>
       </c>
       <c r="D20" t="s">
+        <v>385</v>
+      </c>
+      <c r="E20" t="s">
         <v>386</v>
       </c>
-      <c r="E20" t="s">
-        <v>387</v>
-      </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H20" t="s">
-        <v>369</v>
+        <v>612</v>
       </c>
       <c r="I20" t="s">
         <v>361</v>
@@ -6902,7 +6902,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS20" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AT20">
         <v>10306.1</v>
@@ -6945,7 +6945,7 @@
         <v>247.32422542917433</v>
       </c>
       <c r="BE20" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="BF20">
         <v>609.26</v>
@@ -7167,7 +7167,7 @@
         <v>1628184178.5</v>
       </c>
       <c r="DW20" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="DX20">
         <v>1628184167.5</v>
@@ -7517,19 +7517,19 @@
         <v>9568.4000000953693</v>
       </c>
       <c r="D21" t="s">
+        <v>390</v>
+      </c>
+      <c r="E21" t="s">
         <v>391</v>
       </c>
-      <c r="E21" t="s">
-        <v>392</v>
-      </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H21" t="s">
-        <v>369</v>
+        <v>612</v>
       </c>
       <c r="I21" t="s">
         <v>361</v>
@@ -7667,7 +7667,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS21" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AT21">
         <v>10306</v>
@@ -7710,7 +7710,7 @@
         <v>245.46569997986643</v>
       </c>
       <c r="BE21" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="BF21">
         <v>612.75</v>
@@ -7932,7 +7932,7 @@
         <v>1628184283</v>
       </c>
       <c r="DW21" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="DX21">
         <v>1628184280</v>
@@ -8282,19 +8282,19 @@
         <v>9687.5</v>
       </c>
       <c r="D22" t="s">
+        <v>395</v>
+      </c>
+      <c r="E22" t="s">
         <v>396</v>
       </c>
-      <c r="E22" t="s">
-        <v>397</v>
-      </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H22" t="s">
-        <v>369</v>
+        <v>612</v>
       </c>
       <c r="I22" t="s">
         <v>361</v>
@@ -8432,7 +8432,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS22" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AT22">
         <v>10305.200000000001</v>
@@ -8475,7 +8475,7 @@
         <v>244.53886235032567</v>
       </c>
       <c r="BE22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="BF22">
         <v>615.09</v>
@@ -8697,7 +8697,7 @@
         <v>1628184405</v>
       </c>
       <c r="DW22" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="DX22">
         <v>1628184395.5</v>
@@ -9047,19 +9047,19 @@
         <v>9794.5</v>
       </c>
       <c r="D23" t="s">
+        <v>400</v>
+      </c>
+      <c r="E23" t="s">
         <v>401</v>
       </c>
-      <c r="E23" t="s">
-        <v>402</v>
-      </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H23" t="s">
-        <v>369</v>
+        <v>612</v>
       </c>
       <c r="I23" t="s">
         <v>361</v>
@@ -9197,7 +9197,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS23" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AT23">
         <v>10303.9</v>
@@ -9240,7 +9240,7 @@
         <v>243.51790229849701</v>
       </c>
       <c r="BE23" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="BF23">
         <v>617.59</v>
@@ -9462,7 +9462,7 @@
         <v>1628184510.0999999</v>
       </c>
       <c r="DW23" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="DX23">
         <v>1628184509.0999999</v>
@@ -9812,19 +9812,19 @@
         <v>9910.5</v>
       </c>
       <c r="D24" t="s">
+        <v>405</v>
+      </c>
+      <c r="E24" t="s">
         <v>406</v>
       </c>
-      <c r="E24" t="s">
-        <v>407</v>
-      </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H24" t="s">
-        <v>369</v>
+        <v>612</v>
       </c>
       <c r="I24" t="s">
         <v>361</v>
@@ -9962,7 +9962,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS24" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AT24">
         <v>10302.5</v>
@@ -10005,7 +10005,7 @@
         <v>241.63532294434995</v>
       </c>
       <c r="BE24" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="BF24">
         <v>620.63</v>
@@ -10227,7 +10227,7 @@
         <v>1628184627.0999999</v>
       </c>
       <c r="DW24" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="DX24">
         <v>1628184616.5999999</v>
@@ -10577,19 +10577,19 @@
         <v>10025.5</v>
       </c>
       <c r="D25" t="s">
+        <v>410</v>
+      </c>
+      <c r="E25" t="s">
         <v>411</v>
       </c>
-      <c r="E25" t="s">
-        <v>412</v>
-      </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H25" t="s">
-        <v>369</v>
+        <v>612</v>
       </c>
       <c r="I25" t="s">
         <v>361</v>
@@ -10727,7 +10727,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS25" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AT25">
         <v>10302.200000000001</v>
@@ -10770,7 +10770,7 @@
         <v>254.01044180436105</v>
       </c>
       <c r="BE25" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="BF25">
         <v>593.42999999999995</v>
@@ -10992,7 +10992,7 @@
         <v>1628184741.5999999</v>
       </c>
       <c r="DW25" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="DX25">
         <v>1628184732.5999999</v>
@@ -11342,19 +11342,19 @@
         <v>10172</v>
       </c>
       <c r="D26" t="s">
+        <v>415</v>
+      </c>
+      <c r="E26" t="s">
         <v>416</v>
       </c>
-      <c r="E26" t="s">
-        <v>417</v>
-      </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H26" t="s">
-        <v>369</v>
+        <v>612</v>
       </c>
       <c r="I26" t="s">
         <v>361</v>
@@ -11492,7 +11492,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS26" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AT26">
         <v>10301.299999999999</v>
@@ -11535,7 +11535,7 @@
         <v>258.75975853725953</v>
       </c>
       <c r="BE26" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="BF26">
         <v>607.45000000000005</v>
@@ -11757,7 +11757,7 @@
         <v>1628184887.5999999</v>
       </c>
       <c r="DW26" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="DX26">
         <v>1628184879.0999999</v>
@@ -12107,19 +12107,19 @@
         <v>10265</v>
       </c>
       <c r="D27" t="s">
+        <v>420</v>
+      </c>
+      <c r="E27" t="s">
         <v>421</v>
       </c>
-      <c r="E27" t="s">
-        <v>422</v>
-      </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H27" t="s">
-        <v>369</v>
+        <v>612</v>
       </c>
       <c r="I27" t="s">
         <v>361</v>
@@ -12257,7 +12257,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS27" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AT27">
         <v>10302.1</v>
@@ -12300,7 +12300,7 @@
         <v>263.05514061368098</v>
       </c>
       <c r="BE27" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="BF27">
         <v>632.73</v>
@@ -12522,7 +12522,7 @@
         <v>1628185058.5999999</v>
       </c>
       <c r="DW27" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="DX27">
         <v>1628185045.5999999</v>
@@ -12872,19 +12872,19 @@
         <v>10482</v>
       </c>
       <c r="D28" t="s">
+        <v>425</v>
+      </c>
+      <c r="E28" t="s">
         <v>426</v>
       </c>
-      <c r="E28" t="s">
-        <v>427</v>
-      </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H28" t="s">
-        <v>369</v>
+        <v>612</v>
       </c>
       <c r="I28" t="s">
         <v>361</v>
@@ -13022,7 +13022,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS28" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AT28">
         <v>10301.700000000001</v>
@@ -13065,7 +13065,7 @@
         <v>264.56137023774096</v>
       </c>
       <c r="BE28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BF28">
         <v>635.42999999999995</v>
@@ -13287,7 +13287,7 @@
         <v>1628185266.5999999</v>
       </c>
       <c r="DW28" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="DX28">
         <v>1628185266.5999999</v>
@@ -13637,19 +13637,19 @@
         <v>10671.5</v>
       </c>
       <c r="D29" t="s">
+        <v>430</v>
+      </c>
+      <c r="E29" t="s">
         <v>431</v>
       </c>
-      <c r="E29" t="s">
-        <v>432</v>
-      </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H29" t="s">
-        <v>369</v>
+        <v>612</v>
       </c>
       <c r="I29" t="s">
         <v>361</v>
@@ -13787,7 +13787,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS29" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AT29">
         <v>10302.9</v>
@@ -13830,7 +13830,7 @@
         <v>265.63932152264164</v>
       </c>
       <c r="BE29" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="BF29">
         <v>642.04</v>
@@ -14052,7 +14052,7 @@
         <v>1628185340.0999999</v>
       </c>
       <c r="DW29" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="DX29">
         <v>1628185266.5999999</v>
@@ -14402,19 +14402,19 @@
         <v>10805</v>
       </c>
       <c r="D30" t="s">
+        <v>435</v>
+      </c>
+      <c r="E30" t="s">
         <v>436</v>
       </c>
-      <c r="E30" t="s">
-        <v>437</v>
-      </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H30" t="s">
-        <v>369</v>
+        <v>612</v>
       </c>
       <c r="I30" t="s">
         <v>361</v>
@@ -14552,7 +14552,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS30" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AT30">
         <v>10302.700000000001</v>
@@ -14595,7 +14595,7 @@
         <v>265.76818653642795</v>
       </c>
       <c r="BE30" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="BF30">
         <v>641.94000000000005</v>
@@ -14817,7 +14817,7 @@
         <v>1628185506.5999999</v>
       </c>
       <c r="DW30" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="DX30">
         <v>1628185506.5999999</v>
@@ -15167,19 +15167,19 @@
         <v>10922</v>
       </c>
       <c r="D31" t="s">
+        <v>440</v>
+      </c>
+      <c r="E31" t="s">
         <v>441</v>
       </c>
-      <c r="E31" t="s">
-        <v>442</v>
-      </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H31" t="s">
-        <v>369</v>
+        <v>612</v>
       </c>
       <c r="I31" t="s">
         <v>361</v>
@@ -15317,7 +15317,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS31" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AT31">
         <v>10301.9</v>
@@ -15360,7 +15360,7 @@
         <v>262.76713870545933</v>
       </c>
       <c r="BE31" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="BF31">
         <v>623.55999999999995</v>
@@ -15582,7 +15582,7 @@
         <v>1628185635.5999999</v>
       </c>
       <c r="DW31" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="DX31">
         <v>1628185635.5999999</v>
@@ -15932,19 +15932,19 @@
         <v>11027</v>
       </c>
       <c r="D32" t="s">
+        <v>445</v>
+      </c>
+      <c r="E32" t="s">
         <v>446</v>
       </c>
-      <c r="E32" t="s">
-        <v>447</v>
-      </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H32" t="s">
-        <v>369</v>
+        <v>612</v>
       </c>
       <c r="I32" t="s">
         <v>361</v>
@@ -16082,7 +16082,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS32" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AT32">
         <v>10300.6</v>
@@ -16125,7 +16125,7 @@
         <v>258.36384237014568</v>
       </c>
       <c r="BE32" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="BF32">
         <v>604.66</v>
@@ -16347,7 +16347,7 @@
         <v>1628185744.5999999</v>
       </c>
       <c r="DW32" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="DX32">
         <v>1628185744.5999999</v>
@@ -16697,16 +16697,16 @@
         <v>11813.4000000954</v>
       </c>
       <c r="D33" t="s">
+        <v>450</v>
+      </c>
+      <c r="E33" t="s">
         <v>451</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
         <v>452</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33" t="s">
-        <v>453</v>
       </c>
       <c r="H33" t="s">
         <v>360</v>
@@ -16847,7 +16847,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AT33">
         <v>10399</v>
@@ -16890,7 +16890,7 @@
         <v>262.89132181134664</v>
       </c>
       <c r="BE33" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="BF33">
         <v>574.29</v>
@@ -17112,7 +17112,7 @@
         <v>1628186530.5</v>
       </c>
       <c r="DW33" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="DX33">
         <v>1628186521.5</v>
@@ -17462,16 +17462,16 @@
         <v>11935.9000000954</v>
       </c>
       <c r="D34" t="s">
+        <v>456</v>
+      </c>
+      <c r="E34" t="s">
         <v>457</v>
       </c>
-      <c r="E34" t="s">
-        <v>458</v>
-      </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H34" t="s">
         <v>360</v>
@@ -17612,7 +17612,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS34" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AT34">
         <v>10397</v>
@@ -17655,7 +17655,7 @@
         <v>256.44770387445925</v>
       </c>
       <c r="BE34" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="BF34">
         <v>555.83000000000004</v>
@@ -17877,7 +17877,7 @@
         <v>1628186653.5</v>
       </c>
       <c r="DW34" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="DX34">
         <v>1628186638.5</v>
@@ -18227,16 +18227,16 @@
         <v>12048.9000000954</v>
       </c>
       <c r="D35" t="s">
+        <v>461</v>
+      </c>
+      <c r="E35" t="s">
         <v>462</v>
       </c>
-      <c r="E35" t="s">
-        <v>463</v>
-      </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H35" t="s">
         <v>360</v>
@@ -18377,7 +18377,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS35" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AT35">
         <v>10395.700000000001</v>
@@ -18420,7 +18420,7 @@
         <v>247.8064486831081</v>
       </c>
       <c r="BE35" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="BF35">
         <v>539.16999999999996</v>
@@ -18642,7 +18642,7 @@
         <v>1628186767</v>
       </c>
       <c r="DW35" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="DX35">
         <v>1628186755</v>
@@ -18992,16 +18992,16 @@
         <v>12166.4000000954</v>
       </c>
       <c r="D36" t="s">
+        <v>466</v>
+      </c>
+      <c r="E36" t="s">
         <v>467</v>
       </c>
-      <c r="E36" t="s">
-        <v>468</v>
-      </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H36" t="s">
         <v>360</v>
@@ -19142,7 +19142,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS36" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AT36">
         <v>10394.700000000001</v>
@@ -19185,7 +19185,7 @@
         <v>242.81390512726952</v>
       </c>
       <c r="BE36" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="BF36">
         <v>521.91</v>
@@ -19407,7 +19407,7 @@
         <v>1628186885</v>
       </c>
       <c r="DW36" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="DX36">
         <v>1628186873</v>
@@ -19757,16 +19757,16 @@
         <v>12273.9000000954</v>
       </c>
       <c r="D37" t="s">
+        <v>471</v>
+      </c>
+      <c r="E37" t="s">
         <v>472</v>
       </c>
-      <c r="E37" t="s">
-        <v>473</v>
-      </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H37" t="s">
         <v>360</v>
@@ -19907,7 +19907,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS37" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AT37">
         <v>10393.9</v>
@@ -19950,7 +19950,7 @@
         <v>237.64490426135475</v>
       </c>
       <c r="BE37" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="BF37">
         <v>515.23</v>
@@ -20172,7 +20172,7 @@
         <v>1628186992.5</v>
       </c>
       <c r="DW37" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="DX37">
         <v>1628186980.5</v>
@@ -20522,16 +20522,16 @@
         <v>12386.4000000954</v>
       </c>
       <c r="D38" t="s">
+        <v>476</v>
+      </c>
+      <c r="E38" t="s">
         <v>477</v>
       </c>
-      <c r="E38" t="s">
-        <v>478</v>
-      </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H38" t="s">
         <v>360</v>
@@ -20672,7 +20672,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS38" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AT38">
         <v>10393.700000000001</v>
@@ -20715,7 +20715,7 @@
         <v>233.81463122061209</v>
       </c>
       <c r="BE38" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BF38">
         <v>515.25</v>
@@ -20937,7 +20937,7 @@
         <v>1628187104</v>
       </c>
       <c r="DW38" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DX38">
         <v>1628187095.5</v>
@@ -21287,16 +21287,16 @@
         <v>12488.9000000954</v>
       </c>
       <c r="D39" t="s">
+        <v>481</v>
+      </c>
+      <c r="E39" t="s">
         <v>482</v>
       </c>
-      <c r="E39" t="s">
-        <v>483</v>
-      </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H39" t="s">
         <v>360</v>
@@ -21437,7 +21437,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS39" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AT39">
         <v>10394.299999999999</v>
@@ -21480,7 +21480,7 @@
         <v>231.08383311790146</v>
       </c>
       <c r="BE39" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="BF39">
         <v>518.41999999999996</v>
@@ -21702,7 +21702,7 @@
         <v>1628187207.5</v>
       </c>
       <c r="DW39" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="DX39">
         <v>1628187202.5</v>
@@ -22052,16 +22052,16 @@
         <v>12595.9000000954</v>
       </c>
       <c r="D40" t="s">
+        <v>486</v>
+      </c>
+      <c r="E40" t="s">
         <v>487</v>
       </c>
-      <c r="E40" t="s">
-        <v>488</v>
-      </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H40" t="s">
         <v>360</v>
@@ -22202,7 +22202,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS40" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AT40">
         <v>10395.5</v>
@@ -22245,7 +22245,7 @@
         <v>228.65396655495553</v>
       </c>
       <c r="BE40" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="BF40">
         <v>539.97</v>
@@ -22467,7 +22467,7 @@
         <v>1628187314.5</v>
       </c>
       <c r="DW40" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="DX40">
         <v>1628187308.5</v>
@@ -22817,16 +22817,16 @@
         <v>12741.9000000954</v>
       </c>
       <c r="D41" t="s">
+        <v>491</v>
+      </c>
+      <c r="E41" t="s">
         <v>492</v>
       </c>
-      <c r="E41" t="s">
-        <v>493</v>
-      </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H41" t="s">
         <v>360</v>
@@ -22967,7 +22967,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS41" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AT41">
         <v>10397.799999999999</v>
@@ -23010,7 +23010,7 @@
         <v>247.2629422973273</v>
       </c>
       <c r="BE41" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="BF41">
         <v>515.91999999999996</v>
@@ -23232,7 +23232,7 @@
         <v>1628187458</v>
       </c>
       <c r="DW41" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="DX41">
         <v>1628187457</v>
@@ -23582,16 +23582,16 @@
         <v>12848.9000000954</v>
       </c>
       <c r="D42" t="s">
+        <v>496</v>
+      </c>
+      <c r="E42" t="s">
         <v>497</v>
       </c>
-      <c r="E42" t="s">
-        <v>498</v>
-      </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H42" t="s">
         <v>360</v>
@@ -23732,7 +23732,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS42" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AT42">
         <v>10398.299999999999</v>
@@ -23775,7 +23775,7 @@
         <v>251.34568599145393</v>
       </c>
       <c r="BE42" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="BF42">
         <v>523.41</v>
@@ -23997,7 +23997,7 @@
         <v>1628187566.5</v>
       </c>
       <c r="DW42" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="DX42">
         <v>1628187555</v>
@@ -24347,16 +24347,16 @@
         <v>12953.9000000954</v>
       </c>
       <c r="D43" t="s">
+        <v>501</v>
+      </c>
+      <c r="E43" t="s">
         <v>502</v>
       </c>
-      <c r="E43" t="s">
-        <v>503</v>
-      </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H43" t="s">
         <v>360</v>
@@ -24497,7 +24497,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS43" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AT43">
         <v>10397.200000000001</v>
@@ -24540,7 +24540,7 @@
         <v>259.14812138200426</v>
       </c>
       <c r="BE43" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="BF43">
         <v>559.54</v>
@@ -24762,7 +24762,7 @@
         <v>1628187672.5</v>
       </c>
       <c r="DW43" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="DX43">
         <v>1628187672.5</v>
@@ -25112,16 +25112,16 @@
         <v>13061.9000000954</v>
       </c>
       <c r="D44" t="s">
+        <v>506</v>
+      </c>
+      <c r="E44" t="s">
         <v>507</v>
       </c>
-      <c r="E44" t="s">
-        <v>508</v>
-      </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H44" t="s">
         <v>360</v>
@@ -25262,7 +25262,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS44" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AT44">
         <v>10394.799999999999</v>
@@ -25305,7 +25305,7 @@
         <v>262.108122386633</v>
       </c>
       <c r="BE44" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="BF44">
         <v>567.04999999999995</v>
@@ -25527,7 +25527,7 @@
         <v>1628187777.5</v>
       </c>
       <c r="DW44" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="DX44">
         <v>1628187772.5</v>
@@ -25877,16 +25877,16 @@
         <v>13177</v>
       </c>
       <c r="D45" t="s">
+        <v>511</v>
+      </c>
+      <c r="E45" t="s">
         <v>512</v>
       </c>
-      <c r="E45" t="s">
-        <v>513</v>
-      </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H45" t="s">
         <v>360</v>
@@ -26027,7 +26027,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS45" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AT45">
         <v>10391.5</v>
@@ -26070,7 +26070,7 @@
         <v>262.93843028388926</v>
       </c>
       <c r="BE45" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="BF45">
         <v>570.66</v>
@@ -26292,7 +26292,7 @@
         <v>1628187890.5999999</v>
       </c>
       <c r="DW45" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="DX45">
         <v>1628187890.5999999</v>
@@ -26642,16 +26642,16 @@
         <v>13306</v>
       </c>
       <c r="D46" t="s">
+        <v>516</v>
+      </c>
+      <c r="E46" t="s">
         <v>517</v>
       </c>
-      <c r="E46" t="s">
-        <v>518</v>
-      </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H46" t="s">
         <v>360</v>
@@ -26792,7 +26792,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS46" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AT46">
         <v>10388</v>
@@ -26835,7 +26835,7 @@
         <v>263.19741562146106</v>
       </c>
       <c r="BE46" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="BF46">
         <v>567.29</v>
@@ -27057,7 +27057,7 @@
         <v>1628188019.0999999</v>
       </c>
       <c r="DW46" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="DX46">
         <v>1628188019.0999999</v>
@@ -27407,16 +27407,16 @@
         <v>13424.5</v>
       </c>
       <c r="D47" t="s">
+        <v>521</v>
+      </c>
+      <c r="E47" t="s">
         <v>522</v>
       </c>
-      <c r="E47" t="s">
-        <v>523</v>
-      </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H47" t="s">
         <v>360</v>
@@ -27557,7 +27557,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS47" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AT47">
         <v>10387.5</v>
@@ -27600,7 +27600,7 @@
         <v>261.74847556197119</v>
       </c>
       <c r="BE47" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="BF47">
         <v>559.6</v>
@@ -27822,7 +27822,7 @@
         <v>1628188137.0999999</v>
       </c>
       <c r="DW47" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="DX47">
         <v>1628188129.5999999</v>
@@ -28172,16 +28172,16 @@
         <v>13554</v>
       </c>
       <c r="D48" t="s">
+        <v>526</v>
+      </c>
+      <c r="E48" t="s">
         <v>527</v>
       </c>
-      <c r="E48" t="s">
-        <v>528</v>
-      </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H48" t="s">
         <v>360</v>
@@ -28322,7 +28322,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS48" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AT48">
         <v>10386.4</v>
@@ -28365,7 +28365,7 @@
         <v>260.53647574598205</v>
       </c>
       <c r="BE48" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="BF48">
         <v>554.66</v>
@@ -28587,7 +28587,7 @@
         <v>1628188268.0999999</v>
       </c>
       <c r="DW48" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="DX48">
         <v>1628188268.0999999</v>
@@ -28937,19 +28937,19 @@
         <v>14082</v>
       </c>
       <c r="D49" t="s">
+        <v>531</v>
+      </c>
+      <c r="E49" t="s">
         <v>532</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49" t="s">
+        <v>452</v>
+      </c>
+      <c r="H49" t="s">
         <v>533</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49" t="s">
-        <v>453</v>
-      </c>
-      <c r="H49" t="s">
-        <v>534</v>
       </c>
       <c r="I49" t="s">
         <v>361</v>
@@ -29087,7 +29087,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS49" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AT49">
         <v>10392.700000000001</v>
@@ -29130,7 +29130,7 @@
         <v>265.84365381084024</v>
       </c>
       <c r="BE49" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="BF49">
         <v>575.09</v>
@@ -29352,7 +29352,7 @@
         <v>1628188797.5999999</v>
       </c>
       <c r="DW49" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="DX49">
         <v>1628188797.5999999</v>
@@ -29702,19 +29702,19 @@
         <v>14201</v>
       </c>
       <c r="D50" t="s">
+        <v>537</v>
+      </c>
+      <c r="E50" t="s">
         <v>538</v>
       </c>
-      <c r="E50" t="s">
-        <v>539</v>
-      </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H50" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I50" t="s">
         <v>361</v>
@@ -29852,7 +29852,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS50" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AT50">
         <v>10393.299999999999</v>
@@ -29895,7 +29895,7 @@
         <v>259.51773154376167</v>
       </c>
       <c r="BE50" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="BF50">
         <v>555.41</v>
@@ -30117,7 +30117,7 @@
         <v>1628188919.0999999</v>
       </c>
       <c r="DW50" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="DX50">
         <v>1628188900.5999999</v>
@@ -30467,19 +30467,19 @@
         <v>14314</v>
       </c>
       <c r="D51" t="s">
+        <v>542</v>
+      </c>
+      <c r="E51" t="s">
         <v>543</v>
       </c>
-      <c r="E51" t="s">
-        <v>544</v>
-      </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H51" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I51" t="s">
         <v>361</v>
@@ -30617,7 +30617,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS51" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AT51">
         <v>10393.5</v>
@@ -30660,7 +30660,7 @@
         <v>251.46910354429372</v>
       </c>
       <c r="BE51" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="BF51">
         <v>539.29999999999995</v>
@@ -30882,7 +30882,7 @@
         <v>1628189032.0999999</v>
       </c>
       <c r="DW51" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="DX51">
         <v>1628189018.0999999</v>
@@ -31232,19 +31232,19 @@
         <v>14462</v>
       </c>
       <c r="D52" t="s">
+        <v>547</v>
+      </c>
+      <c r="E52" t="s">
         <v>548</v>
       </c>
-      <c r="E52" t="s">
-        <v>549</v>
-      </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H52" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I52" t="s">
         <v>361</v>
@@ -31382,7 +31382,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS52" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AT52">
         <v>10394.200000000001</v>
@@ -31425,7 +31425,7 @@
         <v>247.13299205299711</v>
       </c>
       <c r="BE52" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="BF52">
         <v>534.85</v>
@@ -31647,7 +31647,7 @@
         <v>1628189176.0999999</v>
       </c>
       <c r="DW52" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="DX52">
         <v>1628189156.0999999</v>
@@ -31997,19 +31997,19 @@
         <v>14573</v>
       </c>
       <c r="D53" t="s">
+        <v>552</v>
+      </c>
+      <c r="E53" t="s">
         <v>553</v>
       </c>
-      <c r="E53" t="s">
-        <v>554</v>
-      </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H53" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I53" t="s">
         <v>361</v>
@@ -32147,7 +32147,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS53" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AT53">
         <v>10393.799999999999</v>
@@ -32190,7 +32190,7 @@
         <v>242.83448733978796</v>
       </c>
       <c r="BE53" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="BF53">
         <v>530.37</v>
@@ -32412,7 +32412,7 @@
         <v>1628189287.5999999</v>
       </c>
       <c r="DW53" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="DX53">
         <v>1628189280.0999999</v>
@@ -32762,19 +32762,19 @@
         <v>14699.5</v>
       </c>
       <c r="D54" t="s">
+        <v>557</v>
+      </c>
+      <c r="E54" t="s">
         <v>558</v>
       </c>
-      <c r="E54" t="s">
-        <v>559</v>
-      </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H54" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I54" t="s">
         <v>361</v>
@@ -32912,7 +32912,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS54" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AT54">
         <v>10392.799999999999</v>
@@ -32955,7 +32955,7 @@
         <v>239.40468234757012</v>
       </c>
       <c r="BE54" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="BF54">
         <v>525.92999999999995</v>
@@ -33177,7 +33177,7 @@
         <v>1628189414.0999999</v>
       </c>
       <c r="DW54" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="DX54">
         <v>1628189397.0999999</v>
@@ -33527,19 +33527,19 @@
         <v>14818.4000000954</v>
       </c>
       <c r="D55" t="s">
+        <v>562</v>
+      </c>
+      <c r="E55" t="s">
         <v>563</v>
       </c>
-      <c r="E55" t="s">
-        <v>564</v>
-      </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H55" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I55" t="s">
         <v>361</v>
@@ -33677,7 +33677,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS55" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AT55">
         <v>10390.9</v>
@@ -33720,7 +33720,7 @@
         <v>236.32871671506064</v>
       </c>
       <c r="BE55" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="BF55">
         <v>533.85</v>
@@ -33942,7 +33942,7 @@
         <v>1628189533.0999999</v>
       </c>
       <c r="DW55" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="DX55">
         <v>1628189523.5999999</v>
@@ -34292,19 +34292,19 @@
         <v>14930.9000000954</v>
       </c>
       <c r="D56" t="s">
+        <v>567</v>
+      </c>
+      <c r="E56" t="s">
         <v>568</v>
       </c>
-      <c r="E56" t="s">
-        <v>569</v>
-      </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H56" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I56" t="s">
         <v>361</v>
@@ -34442,7 +34442,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS56" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AT56">
         <v>10389.799999999999</v>
@@ -34485,7 +34485,7 @@
         <v>233.55009341829447</v>
       </c>
       <c r="BE56" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="BF56">
         <v>539.41999999999996</v>
@@ -34707,7 +34707,7 @@
         <v>1628189645</v>
       </c>
       <c r="DW56" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="DX56">
         <v>1628189640</v>
@@ -35057,19 +35057,19 @@
         <v>15081.4000000954</v>
       </c>
       <c r="D57" t="s">
+        <v>572</v>
+      </c>
+      <c r="E57" t="s">
         <v>573</v>
       </c>
-      <c r="E57" t="s">
-        <v>574</v>
-      </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H57" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I57" t="s">
         <v>361</v>
@@ -35207,7 +35207,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS57" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AT57">
         <v>10391.700000000001</v>
@@ -35250,7 +35250,7 @@
         <v>254.51047898603622</v>
       </c>
       <c r="BE57" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="BF57">
         <v>531.11</v>
@@ -35472,7 +35472,7 @@
         <v>1628189796</v>
       </c>
       <c r="DW57" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="DX57">
         <v>1628189796</v>
@@ -35822,19 +35822,19 @@
         <v>15190.4000000954</v>
       </c>
       <c r="D58" t="s">
+        <v>577</v>
+      </c>
+      <c r="E58" t="s">
         <v>578</v>
       </c>
-      <c r="E58" t="s">
-        <v>579</v>
-      </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H58" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I58" t="s">
         <v>361</v>
@@ -35972,7 +35972,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS58" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AT58">
         <v>10392.799999999999</v>
@@ -36015,7 +36015,7 @@
         <v>257.33038369601093</v>
       </c>
       <c r="BE58" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="BF58">
         <v>541.33000000000004</v>
@@ -36237,7 +36237,7 @@
         <v>1628189904.5</v>
       </c>
       <c r="DW58" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="DX58">
         <v>1628189894</v>
@@ -36587,19 +36587,19 @@
         <v>15317.4000000954</v>
       </c>
       <c r="D59" t="s">
+        <v>582</v>
+      </c>
+      <c r="E59" t="s">
         <v>583</v>
       </c>
-      <c r="E59" t="s">
-        <v>584</v>
-      </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H59" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I59" t="s">
         <v>361</v>
@@ -36737,7 +36737,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS59" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AT59">
         <v>10395.200000000001</v>
@@ -36780,7 +36780,7 @@
         <v>264.39980370485125</v>
       </c>
       <c r="BE59" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="BF59">
         <v>573.27</v>
@@ -37002,7 +37002,7 @@
         <v>1628190031</v>
       </c>
       <c r="DW59" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="DX59">
         <v>1628190023.5</v>
@@ -37352,19 +37352,19 @@
         <v>15457.4000000954</v>
       </c>
       <c r="D60" t="s">
+        <v>587</v>
+      </c>
+      <c r="E60" t="s">
         <v>588</v>
       </c>
-      <c r="E60" t="s">
-        <v>589</v>
-      </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H60" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I60" t="s">
         <v>361</v>
@@ -37502,7 +37502,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS60" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AT60">
         <v>10396.299999999999</v>
@@ -37545,7 +37545,7 @@
         <v>267.07530361145285</v>
       </c>
       <c r="BE60" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="BF60">
         <v>582.09</v>
@@ -37767,7 +37767,7 @@
         <v>1628190168</v>
       </c>
       <c r="DW60" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="DX60">
         <v>1628190161.5</v>
@@ -38117,19 +38117,19 @@
         <v>15570.4000000954</v>
       </c>
       <c r="D61" t="s">
+        <v>592</v>
+      </c>
+      <c r="E61" t="s">
         <v>593</v>
       </c>
-      <c r="E61" t="s">
-        <v>594</v>
-      </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H61" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I61" t="s">
         <v>361</v>
@@ -38267,7 +38267,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS61" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AT61">
         <v>10395.9</v>
@@ -38310,7 +38310,7 @@
         <v>267.53468313799215</v>
       </c>
       <c r="BE61" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="BF61">
         <v>576.4</v>
@@ -38532,7 +38532,7 @@
         <v>1628190280</v>
       </c>
       <c r="DW61" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="DX61">
         <v>1628190280</v>
@@ -38882,19 +38882,19 @@
         <v>15705.4000000954</v>
       </c>
       <c r="D62" t="s">
+        <v>597</v>
+      </c>
+      <c r="E62" t="s">
         <v>598</v>
       </c>
-      <c r="E62" t="s">
-        <v>599</v>
-      </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H62" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I62" t="s">
         <v>361</v>
@@ -39032,7 +39032,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS62" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AT62">
         <v>10395.5</v>
@@ -39075,7 +39075,7 @@
         <v>267.04176615630689</v>
       </c>
       <c r="BE62" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="BF62">
         <v>578.36</v>
@@ -39297,7 +39297,7 @@
         <v>1628190413.5</v>
       </c>
       <c r="DW62" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="DX62">
         <v>1628190412.5</v>
@@ -39647,19 +39647,19 @@
         <v>15842.9000000954</v>
       </c>
       <c r="D63" t="s">
+        <v>602</v>
+      </c>
+      <c r="E63" t="s">
         <v>603</v>
       </c>
-      <c r="E63" t="s">
-        <v>604</v>
-      </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H63" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I63" t="s">
         <v>361</v>
@@ -39797,7 +39797,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS63" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AT63">
         <v>10395.799999999999</v>
@@ -39840,7 +39840,7 @@
         <v>264.96323754163518</v>
       </c>
       <c r="BE63" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="BF63">
         <v>563.66</v>
@@ -40062,7 +40062,7 @@
         <v>1628190551</v>
       </c>
       <c r="DW63" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="DX63">
         <v>1628190551</v>
@@ -40412,19 +40412,19 @@
         <v>15962.9000000954</v>
       </c>
       <c r="D64" t="s">
+        <v>607</v>
+      </c>
+      <c r="E64" t="s">
         <v>608</v>
       </c>
-      <c r="E64" t="s">
-        <v>609</v>
-      </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H64" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I64" t="s">
         <v>361</v>
@@ -40562,7 +40562,7 @@
         <v>-0.32343011824092399</v>
       </c>
       <c r="AS64" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AT64">
         <v>10396.1</v>
@@ -40605,7 +40605,7 @@
         <v>263.53226528790418</v>
       </c>
       <c r="BE64" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="BF64">
         <v>553.91999999999996</v>
@@ -40827,7 +40827,7 @@
         <v>1628190670.5</v>
       </c>
       <c r="DW64" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="DX64">
         <v>1628190667</v>

--- a/inst/extdata/c3_aci_1.xlsx
+++ b/inst/extdata/c3_aci_1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Measurements" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="617">
   <si>
     <t>File opened</t>
   </si>
@@ -1859,6 +1859,18 @@
   </si>
   <si>
     <t>5a</t>
+  </si>
+  <si>
+    <t>11:04:20</t>
+  </si>
+  <si>
+    <t>a user remark</t>
+  </si>
+  <si>
+    <t>13:10:42</t>
+  </si>
+  <si>
+    <t>another user remark</t>
   </si>
 </sst>
 </file>
@@ -1894,8 +1906,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2202,7 +2215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:IE64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
@@ -41173,9 +41186,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -41291,7 +41306,24 @@
         <v>24</v>
       </c>
     </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B15" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B16" t="s">
+        <v>616</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>